--- a/fraud_ppr_project/docs/ppr_report.xlsx
+++ b/fraud_ppr_project/docs/ppr_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pycharmprojects\ppr\fraud_ppr_project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C703EB3F-DB0C-4E9A-B466-3737D01C0E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24840F4-4A97-466A-A9E6-923A342A36FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -285,12 +285,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -301,6 +295,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -318,6 +318,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>155865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>398929</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>267679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6972F15A-8EDD-B7CC-136A-40638D725BF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8589817" y="155865"/>
+          <a:ext cx="7707203" cy="4770405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,8 +579,8 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -565,13 +620,13 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="21.75" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
@@ -649,16 +704,16 @@
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -666,16 +721,16 @@
       <c r="A12" s="6">
         <v>1000</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -683,16 +738,16 @@
       <c r="A13" s="8">
         <v>5000</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -700,16 +755,16 @@
       <c r="A14" s="8">
         <v>10000</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -717,16 +772,16 @@
       <c r="A15" s="8">
         <v>15000</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -734,16 +789,16 @@
       <c r="A16" s="8">
         <v>20000</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -751,16 +806,16 @@
       <c r="A17" s="8">
         <v>25000</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1839,5 +1894,6 @@
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>